--- a/datos/Precio euro_m2.xlsx
+++ b/datos/Precio euro_m2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d75fbf514f377552/Documentos/GitHub/TFM/datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="11_AD4D2F04E46CFB4ACB3E207A15D2D952693EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F4F8D21-DEE2-48C4-8048-3F95AC60880C}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_AD4D2F04E46CFB4ACB3E207A15D2D952693EDF20" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B865734-0815-4EBE-B678-56971726DA37}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,6 +463,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1284,7 +1288,7 @@
         <v>157.46935664640213</v>
       </c>
       <c r="H9" s="8">
-        <v>166.60528200831646</v>
+        <v>166.60528200831601</v>
       </c>
       <c r="I9" s="8">
         <v>144.77539403041504</v>
